--- a/biology/Zoologie/Francis_Bernard_(entomologiste)/Francis_Bernard_(entomologiste).xlsx
+++ b/biology/Zoologie/Francis_Bernard_(entomologiste)/Francis_Bernard_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis Bernard, né le 30 avril 1908 à Mathieu (Calvados) et mort le 16 juin 1990 à Nice (Alpes-Maritimes), est un entomologiste myrmécologue et océanographe français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Bernard, né le 30 avril 1908 à Mathieu (Calvados) et mort le 16 juin 1990 à Nice (Alpes-Maritimes), est un entomologiste myrmécologue et océanographe français.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études à partir de 1928 à l'École normale supérieure, Francis Bernard obtient en 1932 l'agrégation de sciences naturelles, à laquelle il est classé premier[2]. Il devient alors de 1933 à 1934 assistant de botanique de Louis Blaringhem, puis en 1939 assistant de biologie animale. Cette même année, il est affecté à ce titre à l'Institut océanographique de Paris, où il demeure jusqu'en 1939. S'étant intéressé à la structure des yeux des insectes, il soutient sa thèse de doctorat sur le sujet à la Sorbonne en 1937[1],[3].
-Francis Bernard est nommé maître de conférences à l'université de Lyon en 1939, puis professeur  de zoologie à l'université d'Alger en 1941. Il conserve ce poste jusqu'à sa retraite en 1966[1].
-Durant la Seconde Guerre mondiale, Francis Bernard est lieutenant de DCA en Lorraine de 1939 à 1940. Il est ensuite capitaine à Alger de 1943 à 1945[3],[4].
-Francis Bernard a partagé sa carrière scientifique entre l'étude des hyménoptères (et en particulier les fourmis) et l'océanographie, avec de nombreuses études sur le plancton. Durant la période de l'entre-deux-guerres il n'y a en France que cinq océanographes biologistes, dont lui-même, avec Louis Fage, Maurice Fontaine, Louis Joubin et Georges Tregouboff[1].
-En 1955, il participe au voyage scientifique de la Calypso en mer Méditerranée orientale, dans le cadre de ses recherches sur le plancton, et plonge avec le bathyscaphe au-dessous de 2000 m de profondeur[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études à partir de 1928 à l'École normale supérieure, Francis Bernard obtient en 1932 l'agrégation de sciences naturelles, à laquelle il est classé premier. Il devient alors de 1933 à 1934 assistant de botanique de Louis Blaringhem, puis en 1939 assistant de biologie animale. Cette même année, il est affecté à ce titre à l'Institut océanographique de Paris, où il demeure jusqu'en 1939. S'étant intéressé à la structure des yeux des insectes, il soutient sa thèse de doctorat sur le sujet à la Sorbonne en 1937,.
+Francis Bernard est nommé maître de conférences à l'université de Lyon en 1939, puis professeur  de zoologie à l'université d'Alger en 1941. Il conserve ce poste jusqu'à sa retraite en 1966.
+Durant la Seconde Guerre mondiale, Francis Bernard est lieutenant de DCA en Lorraine de 1939 à 1940. Il est ensuite capitaine à Alger de 1943 à 1945,.
+Francis Bernard a partagé sa carrière scientifique entre l'étude des hyménoptères (et en particulier les fourmis) et l'océanographie, avec de nombreuses études sur le plancton. Durant la période de l'entre-deux-guerres il n'y a en France que cinq océanographes biologistes, dont lui-même, avec Louis Fage, Maurice Fontaine, Louis Joubin et Georges Tregouboff.
+En 1955, il participe au voyage scientifique de la Calypso en mer Méditerranée orientale, dans le cadre de ses recherches sur le plancton, et plonge avec le bathyscaphe au-dessous de 2000 m de profondeur.
 </t>
         </is>
       </c>
@@ -548,31 +562,36 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Articles
-1935 : Hyménoptères prédateurs des environs de Fréjus (Var). Ann. Soc. ent. Fr., 104 : 31-72[3].
-1936 : Essai sur les Insectes terricoles du Haut massif de Néouvielle (Pyrénées centrales). Miscellanea Entom., 37 : 1-7[3].
-1936 : Recherches quantitatives sur le plancton méditerranéen. Bull. Inst. Ocean. Monaco, (701). Avec Louis Fage[3].
-1937 : Recherche sur la morphologenèse des yeux composés d'Arthropodes. Thèse de doctorat, Paris. Bull. Biol. France-Belgique, suppl. XXIII : 1-162[1],[3].
-1939 : Recherches sur les Coccolithophorides. I. Principales espèces du plancton a Monaco. Bulletin de l'Institut océanographique, Monaco, 767, 1-19[3].
-1939 : Étude sur les Variations de Fertilité des Eaux Méditerranéennes. Climat et Nanoplancton à Monaco en 1937–38. ICES Journal of Marine Science, Vol. 14 (2), août 1939 : 228–241[5],[6].
-1939 : Coccolithophorides nouveaux ou peu connus observés à Monaco en 1938. Archives de zoologie expérimentale et générale, Monaco, 81(1) : 39-44[7]
-1945 : Répartition des fourmis en Afrique du Nord. Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 35: 117–124[3].
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1935 : Hyménoptères prédateurs des environs de Fréjus (Var). Ann. Soc. ent. Fr., 104 : 31-72.
+1936 : Essai sur les Insectes terricoles du Haut massif de Néouvielle (Pyrénées centrales). Miscellanea Entom., 37 : 1-7.
+1936 : Recherches quantitatives sur le plancton méditerranéen. Bull. Inst. Ocean. Monaco, (701). Avec Louis Fage.
+1937 : Recherche sur la morphologenèse des yeux composés d'Arthropodes. Thèse de doctorat, Paris. Bull. Biol. France-Belgique, suppl. XXIII : 1-162,.
+1939 : Recherches sur les Coccolithophorides. I. Principales espèces du plancton a Monaco. Bulletin de l'Institut océanographique, Monaco, 767, 1-19.
+1939 : Étude sur les Variations de Fertilité des Eaux Méditerranéennes. Climat et Nanoplancton à Monaco en 1937–38. ICES Journal of Marine Science, Vol. 14 (2), août 1939 : 228–241,.
+1939 : Coccolithophorides nouveaux ou peu connus observés à Monaco en 1938. Archives de zoologie expérimentale et générale, Monaco, 81(1) : 39-44
+1945 : Répartition des fourmis en Afrique du Nord. Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 35: 117–124.
 1945 : Notes sur l'écologie des fourmis en forêt de Mamora (Maroc). Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 35: 125–140.
-1947 : Rôle des flagellés dans la transparence marine en Algérie. Bull. Soc. Hist. Nat. Afr. Nord t. 38 :74–79[8].
-1948 : Recherches préliminaires sur la fertilité marine au large d'Alger, Jour. Cons. Intern. Explor. Mer, Vol. XV, No. 3 : 260–267. (lire en ligne)[8]
+1947 : Rôle des flagellés dans la transparence marine en Algérie. Bull. Soc. Hist. Nat. Afr. Nord t. 38 :74–79.
+1948 : Recherches préliminaires sur la fertilité marine au large d'Alger, Jour. Cons. Intern. Explor. Mer, Vol. XV, No. 3 : 260–267. (lire en ligne)
 1948 : Les insectes sociaux du Fezzân. Comportement et biogéographie. In Mission scientifique du Fezzân (1944-1945). 5, Zoologie: 87–200.
-1950 : Étude des sédiments marins au large d'Alger. I Teneur en azote et carbone organique. Avec J. Lecal, avec l'aide technique de R. Codinat[3]
-1950 : Notes biologiques sur les cinq fourmis les plus nuisibles dans la région méditerranéenne. Revue de Pathologie Végétale et d'Entomologie Agricole de France, 29: 26–42[3].
+1950 : Étude des sédiments marins au large d'Alger. I Teneur en azote et carbone organique. Avec J. Lecal, avec l'aide technique de R. Codinat
+1950 : Notes biologiques sur les cinq fourmis les plus nuisibles dans la région méditerranéenne. Revue de Pathologie Végétale et d'Entomologie Agricole de France, 29: 26–42.
 1950 : Notes sur les fourmis de France. II. Peuplement des montagnes méridionales. Annales de la Société Entomologique de France, 115: 1–36.
 1950 : Contribution a l'étude de l'Air. Hyménoptères Formicidae. Mémoires de l'Institut Français d'Afrique Noire, 10: 284–294.
 1951 : Super-famille des Serphoidea Kieffer (= Proctotrypoidea Ashmead). Pages 959-975 in Grasse, P.-P. Traite de Zoologie. Anatomie, systematique, biologie. Tome X. Insectes supérieurs et hémiptéroïdes (premier fascicule). Masson et Cie, Paris. 975 pp.
 1953 : La réserve naturelle intégrale du Mt Nimba. XI. Hyménoptères Formicidae. Mémoires de l'Institut Français d'Afrique Noire 19: 165–270.
-1953 : Mission scientifique au Tassili des Ajjer (1949). 1. Recherches zoologiques et médicales. Les fourmis du Tassili des Ajjer (Sahara central). Institut de Recherches Sahariennes de l'Université d'Alger : 121–250[3].
+1953 : Mission scientifique au Tassili des Ajjer (1949). 1. Recherches zoologiques et médicales. Les fourmis du Tassili des Ajjer (Sahara central). Institut de Recherches Sahariennes de l'Université d'Alger : 121–250.
 1954 : Une fourmi nouvelle : Cataglyphis halophila nichant au milieu du Chott Djerid. Bulletin de la Société des Sciences Naturelles de Tunisie, 6: 47–56.
-1955 : Densité du plancton vu au large de Toulon depuis le bathyscaphe FNRS III[3].
+1955 : Densité du plancton vu au large de Toulon depuis le bathyscaphe FNRS III.
 1955 : Fourmis moissonneuses nouvelles ou peu connues des montagnes d'Algérie et révision des Messor du groupe Structor (Latr.). Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 45: 345–365.
 1955 : Morphologie et comportement des fourmis lestobiotiques du genre Epixenus Emery. Insectes Sociaux, 2: 273–283.
-1956 : Eaux atlantiques et méditerranéennes au large de l'Algérie: II. Courants et nannoplancton de 1951 à 1953. Masson[3].
+1956 : Eaux atlantiques et méditerranéennes au large de l'Algérie: II. Courants et nannoplancton de 1951 à 1953. Masson.
 1956 : Révision des Leptothorax (Hyménoptéres Formicidae) d'Europe occidentale, basée sur la biométrie et les génitales mâles. Bulletin de la Société Zoologique de France, 81: 151–165.
 1956 : Remarques sur le peuplement des Baléares en fourmis. Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 47: 254–266.
 1956 : Révision des fourmis paléarctiques du genre Cardiocondyla Emery. Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 47: 299–306.
@@ -580,9 +599,9 @@
 1957 : Xenometra Emery, genre de fourmis parasite nouveau pour l'Ancien Monde (Hym. Formicidae). Bulletin de la Société Entomologique de France, 62: 100–103.
 1959 : Les fourmis des îles Pelagie. Comparaison avec d'autres faunes insulaires. Rivista di Biologia Coloniale, 16: 67–79.
 1959 : Les fourmis de l'île de Port-Cros. Contribution à l'écologie des anciennes forêts méditerranéennes. Vie et Milieu, 9: 340–360.
-1960 : Données sur les quantités moyennes de flagellés en sept régions de la Méditerranée, comparées avec l'Atlantique tropical et l'océan Indien. Congrès Monaco, 123-128[9].
+1960 : Données sur les quantités moyennes de flagellés en sept régions de la Méditerranée, comparées avec l'Atlantique tropical et l'océan Indien. Congrès Monaco, 123-128.
 1960 : Fourmis récoltées en Corse par J. Bonfils (1957). Compte Rendu Sommaire des Séances de la Société de Biogéographie, 36: 108–114.
-1961 : Le peuplement des îles méditerranéennes et le problème de l’insularité : Fourmis de Majorque, de Corse et de sept petites îles du sud méditerranéen. Colloques du C.N.R.S., XCIV : 139-157[3].
+1961 : Le peuplement des îles méditerranéennes et le problème de l’insularité : Fourmis de Majorque, de Corse et de sept petites îles du sud méditerranéen. Colloques du C.N.R.S., XCIV : 139-157.
 1961 : Biotopes habituels des fourmis sahariennes de plaine, d'après l'abondance de leurs nids en 60 stations très diverses.Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 52: 21–41.
 1963 : Capture au Hoggar de trois Acantholepis nouveaux pour ce massif, avec observations sur leurs modes de vie [Hym. Formicidae]. Bulletin de la Société Entomologique de France, 67: 161–164.
 1965 : Fourmis récoltées par J. Mateu dans l'Ennedi. Bulletin de l'Institut Français d'Afrique Noire, (A)27: 307–311.
@@ -591,7 +610,7 @@
 1971 : Comportement de la fourmi : Messor Barbara (L.) Pour la récolte des graines de Trifolium Stellatum L..Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 62: 15–21.
 1972 : Premiers résultats de dénombrement de la Faune par carrés en Afrique du Nord, 63: 3–15.
 1975 : Les fourmis des rues de Kenitra (Maroc) (Hym.). Bulletin de la Société Entomologique de France, 79: 178–183.
-1977 : Écologie des fourmis du Parc national de Port Cros. Bulletin du Muséum national d'histoire naturelle, Ser. 3. Écologie générale[3].
+1977 : Écologie des fourmis du Parc national de Port Cros. Bulletin du Muséum national d'histoire naturelle, Ser. 3. Écologie générale.
 1977 : Trois fourmis nouvelles du Sahara [Hym. Formicidae]. Bulletin de la Société Entomologique de France, 82: 29–32.
 1978 : Contribution à la connaissance du Tapinoma smirothi Krausse, fourmi la plus nuisible aux cultures du Maghreb. Bulletin de la Société d'Histoire Naturelle de l'Afrique du Nord, 67(3/4): 87–101.
 1978 : Prépondérance de la massue antennaire chez les cinq fourmis dominantes de la France méditerranéenne (Hym.). Bulletin de la Société Entomologique de France, 83: 122–125.
@@ -601,11 +620,7 @@
 1981 : Variabilité des proportions biométriques chez les Plagiolepis, avec description de Pl. hoggarensis n. sp. [Hym. Formicidae]. Bulletin de la Société Entomologique de France, 86: 169–172.
 1982 : Les fourmis des Palmeraies : nombres, agilité, rôle pratique, 69: 95–105.
 1983 : Les fourmis et leur milieu en France méditerranéenne. Encyclopédie Entomologique, 45. Paris. 149 pp.
-1985 : Recherches sur l'évolution des fourmis moissonneuses (Hym. Formicidae). Actes des Colloques Insectes Sociaux, 2: 45–55.
-Ouvrages
-Lucien Berland et Francis Bernard, Hyménoptères vespiformes : Cleptidae, Crysidae, Trigonalidae, t. III, Paris, P. Lechevalier, 1938, VII-147 p. (BNF 31799992).
-Francis Bernard, Les Fourmis (Hymenoptera Formicidae) d'Europe occidentale et septentrionale, Paris, Masson et Cie, coll. « Faune de l'Europe et du Bassin méditerranéen », 1968, II-416 p. (BNF 32919878, lire en ligne).
-Francis Bernard, Les Fourmis et leur milieu en France méditerranéenne, Paris, Lechevalier, coll. « Encyclopédie entomologique », 1983, 149 p. (ISBN 2-225-80101-0, BNF 34752194).</t>
+1985 : Recherches sur l'évolution des fourmis moissonneuses (Hym. Formicidae). Actes des Colloques Insectes Sociaux, 2: 45–55.</t>
         </is>
       </c>
     </row>
@@ -630,12 +645,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lucien Berland et Francis Bernard, Hyménoptères vespiformes : Cleptidae, Crysidae, Trigonalidae, t. III, Paris, P. Lechevalier, 1938, VII-147 p. (BNF 31799992).
+Francis Bernard, Les Fourmis (Hymenoptera Formicidae) d'Europe occidentale et septentrionale, Paris, Masson et Cie, coll. « Faune de l'Europe et du Bassin méditerranéen », 1968, II-416 p. (BNF 32919878, lire en ligne).
+Francis Bernard, Les Fourmis et leur milieu en France méditerranéenne, Paris, Lechevalier, coll. « Encyclopédie entomologique », 1983, 149 p. (ISBN 2-225-80101-0, BNF 34752194).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Francis_Bernard_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Bernard_(entomologiste)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Francis Bernard était membre des sociétés savantes suivantes (date d'admission)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Francis Bernard était membre des sociétés savantes suivantes (date d'admission) :
 Union entomologique (1936)
 Société entomologique de France (1940)
 Société linnéenne de Lyon (1941)
@@ -643,34 +698,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Francis_Bernard_(entomologiste)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Francis_Bernard_(entomologiste)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1937 : Prix Gadeau-de-Kerville de la Société entomologique de France pour sa thèse de doctorat[1].
-1940 : Prix Kohn, pour ses travaux sur les variations de température et de salinité dans les profondeurs de la mer[1].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1937 : Prix Gadeau-de-Kerville de la Société entomologique de France pour sa thèse de doctorat.
+1940 : Prix Kohn, pour ses travaux sur les variations de température et de salinité dans les profondeurs de la mer.</t>
         </is>
       </c>
     </row>
